--- a/CHILE/00 Causas Antropógenas/Por Sector Desagregado/Agricultura.xlsx
+++ b/CHILE/00 Causas Antropógenas/Por Sector Desagregado/Agricultura.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\00 Causas Antropógenas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\00 Causas Antropógenas\Por Sector Desagregado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E089376E-2DC1-4530-B87B-275F109B611A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EA23B7-F42B-4C16-9DCE-B83BFA15D0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FC97105-A86D-4AAA-846B-14208993DA5D}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:H892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
